--- a/Inputs/SFintDec8.xlsx
+++ b/Inputs/SFintDec8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5227F2BC-78B7-C74E-B2A4-C43CC3D04FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D507718-F901-6E47-81AB-3E8B2860AC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1100" windowWidth="29440" windowHeight="19500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="1100" windowWidth="29440" windowHeight="19500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,7 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="3">
         <v>7</v>
@@ -8001,7 +8001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
